--- a/NFL Excel Sheets/Offense_OFFENSIVE_LINE.xlsx
+++ b/NFL Excel Sheets/Offense_OFFENSIVE_LINE.xlsx
@@ -30229,82 +30229,82 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>378</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="Q322" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="F322" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="I322" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="M322" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="N322" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="O322" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P322" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="Q322" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>54</t>
         </is>
       </c>
       <c r="S322" t="n">
@@ -30327,77 +30327,77 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>419</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>57</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P323" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="Q323" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="J323" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="M323" t="inlineStr">
+      <c r="R323" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="N323" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O323" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="P323" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="Q323" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="R323" t="inlineStr">
-        <is>
-          <t>16</t>
         </is>
       </c>
       <c r="S323" t="n">
@@ -30415,32 +30415,32 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>451</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G324" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -30450,47 +30450,47 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
         <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P324" t="inlineStr">
+        <is>
           <t>75</t>
         </is>
       </c>
-      <c r="M324" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="N324" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="O324" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="P324" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="S324" t="n">
@@ -30513,77 +30513,77 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>315</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="P325" t="inlineStr">
+        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="M325" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N325" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="O325" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="P325" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>51</t>
         </is>
       </c>
       <c r="S325" t="n">
@@ -30601,12 +30601,12 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>281</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -30616,67 +30616,67 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G326" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>54</t>
         </is>
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P326" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>55</t>
         </is>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>51</t>
         </is>
       </c>
       <c r="S326" t="n">
@@ -30694,82 +30694,82 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>282</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I327" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="J327" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>58</t>
         </is>
       </c>
       <c r="M327" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>42</t>
         </is>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="P327" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
         </is>
       </c>
       <c r="S327" t="n">
@@ -30787,82 +30787,82 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>251</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>19</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>67</t>
         </is>
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P328" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>75</t>
         </is>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>55</t>
         </is>
       </c>
       <c r="S328" t="n">
@@ -30880,47 +30880,47 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>272</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>71</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -30930,7 +30930,7 @@
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N329" t="inlineStr">
@@ -30940,22 +30940,22 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="P329" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>71</t>
         </is>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="R329" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="S329" t="n">
@@ -30973,82 +30973,82 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>213</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G330" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="I330" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="J330" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>70</t>
         </is>
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>17</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="P330" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="S330" t="n">
@@ -31066,27 +31066,27 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>263</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
@@ -31096,52 +31096,52 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="J331" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>70</t>
         </is>
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="P331" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>63</t>
         </is>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>59</t>
         </is>
       </c>
       <c r="S331" t="n">
@@ -31159,17 +31159,17 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>328</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -31179,62 +31179,62 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="M332" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="N332" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="O332" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="P332" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>67</t>
         </is>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>52</t>
         </is>
       </c>
       <c r="S332" t="n">
@@ -31252,82 +31252,82 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>250</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="Q333" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="I333" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="J333" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="M333" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="N333" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="O333" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="P333" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="Q333" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
       <c r="R333" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>48</t>
         </is>
       </c>
       <c r="S333" t="n">
@@ -31345,82 +31345,82 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>181</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="M334" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N334" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="P334" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>20</t>
         </is>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>54</t>
         </is>
       </c>
       <c r="S334" t="n">
@@ -31438,69 +31438,69 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>225</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="G335" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>56</t>
         </is>
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N335" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O335" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="P335" t="inlineStr">
         <is>
           <t>75</t>
@@ -31508,12 +31508,12 @@
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R335" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>53</t>
         </is>
       </c>
       <c r="S335" t="n">
@@ -31531,82 +31531,82 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>246</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="F336" t="inlineStr">
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O336" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G336" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="I336" t="inlineStr">
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="Q336" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J336" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="M336" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="N336" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="O336" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="P336" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="Q336" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="R336" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>63</t>
         </is>
       </c>
       <c r="S336" t="n">
@@ -31624,82 +31624,82 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>243</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G337" t="inlineStr">
+      <c r="N337" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="I337" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J337" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="M337" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N337" t="inlineStr">
+      <c r="O337" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="O337" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="P337" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>40</t>
         </is>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>47</t>
         </is>
       </c>
       <c r="S337" t="n">
@@ -31717,12 +31717,12 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>410</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -31732,67 +31732,67 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G338" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="I338" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="J338" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="K338" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="M338" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="N338" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="O338" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="P338" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>75</t>
         </is>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>74</t>
         </is>
       </c>
       <c r="S338" t="n">
@@ -31810,82 +31810,82 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>524</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>23</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
         <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="Q339" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M339" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N339" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="O339" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P339" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="Q339" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
       <c r="R339" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>61</t>
         </is>
       </c>
       <c r="S339" t="n">
@@ -31903,82 +31903,82 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>248</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="I340" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="J340" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="M340" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="P340" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>29</t>
         </is>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>38</t>
         </is>
       </c>
       <c r="S340" t="n">
@@ -32001,27 +32001,27 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>511</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -32036,7 +32036,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -32046,7 +32046,7 @@
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N341" t="inlineStr">
@@ -32056,22 +32056,22 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="P341" t="inlineStr">
         <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="Q341" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="R341" t="inlineStr">
+        <is>
           <t>64</t>
-        </is>
-      </c>
-      <c r="Q341" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="R341" t="inlineStr">
-        <is>
-          <t>56</t>
         </is>
       </c>
       <c r="S341" t="n">
@@ -32089,82 +32089,82 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>256</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
         <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P342" t="inlineStr">
+        <is>
           <t>75</t>
         </is>
       </c>
-      <c r="I342" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J342" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="M342" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N342" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="O342" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="P342" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
       <c r="Q342" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="R342" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>54</t>
         </is>
       </c>
       <c r="S342" t="n">
@@ -32182,7 +32182,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -32192,72 +32192,72 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G343" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>83</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>70</t>
         </is>
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P343" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>33</t>
         </is>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>32</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="S343" t="n">
@@ -32275,82 +32275,82 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>Washington Redskins</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>417</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G344" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="H344" t="inlineStr">
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P344" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="I344" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J344" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="M344" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O344" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="P344" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>59</t>
         </is>
       </c>
       <c r="S344" t="n">
@@ -32368,82 +32368,82 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Washington Redskins</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>181</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G345" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>78</t>
         </is>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="P345" t="inlineStr">
         <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="Q345" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q345" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>66</t>
         </is>
       </c>
       <c r="S345" t="n">
@@ -32461,32 +32461,32 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>229</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -32501,42 +32501,42 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="M346" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="N346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="P346" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>29</t>
         </is>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>34</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>63</t>
         </is>
       </c>
       <c r="S346" t="n">
@@ -32554,82 +32554,82 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>350</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="M347" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N347" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="P347" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>50</t>
         </is>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>34</t>
         </is>
       </c>
       <c r="R347" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>81</t>
         </is>
       </c>
       <c r="S347" t="n">
@@ -32652,37 +32652,37 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>280</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>83</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -32697,19 +32697,19 @@
       </c>
       <c r="M348" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="N348" t="inlineStr">
+      <c r="O348" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O348" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="P348" t="inlineStr">
         <is>
           <t>100</t>
@@ -32717,12 +32717,12 @@
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>36</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>51</t>
         </is>
       </c>
       <c r="S348" t="n">
@@ -32740,82 +32740,82 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>255</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>57</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>75</t>
         </is>
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P349" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>67</t>
         </is>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>36</t>
         </is>
       </c>
       <c r="R349" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>59</t>
         </is>
       </c>
       <c r="S349" t="n">
@@ -32838,12 +32838,12 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>299</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -32853,47 +32853,47 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>78</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N350" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="P350" t="inlineStr">
@@ -32903,12 +32903,12 @@
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>36</t>
         </is>
       </c>
       <c r="R350" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>78</t>
         </is>
       </c>
       <c r="S350" t="n">
@@ -32926,82 +32926,82 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>356</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N351" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G351" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="I351" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J351" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="M351" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N351" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="P351" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>83</t>
         </is>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>41</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>77</t>
         </is>
       </c>
       <c r="S351" t="n">
@@ -33019,82 +33019,82 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>188</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F352" t="inlineStr">
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O352" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G352" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="I352" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J352" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="M352" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N352" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="O352" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="P352" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>60</t>
         </is>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42</t>
         </is>
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>89</t>
         </is>
       </c>
       <c r="S352" t="n">
@@ -33117,64 +33117,64 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>352</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="F353" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="G353" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="I353" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="J353" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="M353" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N353" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="O353" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
       <c r="P353" t="inlineStr">
         <is>
           <t>67</t>
@@ -33182,12 +33182,12 @@
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>42</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>71</t>
         </is>
       </c>
       <c r="S353" t="n">
